--- a/src/static/data (8).xlsx
+++ b/src/static/data (8).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\estimate_price_phone_bot\src\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICTUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>category</t>
   </si>
@@ -75,58 +75,55 @@
     <t>1450$</t>
   </si>
   <si>
-    <t>Iphone 14 pro max</t>
-  </si>
-  <si>
     <t>1350$</t>
   </si>
   <si>
-    <t>Iphone 13 pro max</t>
-  </si>
-  <si>
-    <t>1250$</t>
-  </si>
-  <si>
-    <t>Iphone 15 pro</t>
-  </si>
-  <si>
-    <t>Iphone 14 pro</t>
-  </si>
-  <si>
-    <t>1150$</t>
-  </si>
-  <si>
-    <t>Vivo</t>
-  </si>
-  <si>
-    <t>Vivo s20</t>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>50%-60%</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>128 GB</t>
+  </si>
+  <si>
+    <t>Karobka</t>
+  </si>
+  <si>
+    <t>Vetnam</t>
+  </si>
+  <si>
+    <t>Shikastlangan</t>
+  </si>
+  <si>
+    <t>10%-40%</t>
+  </si>
+  <si>
+    <t>1 TB</t>
+  </si>
+  <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
+    <t>2000$</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>A53</t>
+  </si>
+  <si>
+    <t>500$</t>
+  </si>
+  <si>
+    <t>600$</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>370$</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>350$</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>hashtag</t>
-  </si>
-  <si>
-    <t>#Phone #iPhone</t>
-  </si>
-  <si>
-    <t>#Vivo</t>
   </si>
 </sst>
 </file>
@@ -192,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,6 +198,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,23 +489,23 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" customWidth="1"/>
+    <col min="9" max="10" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,12 +533,10 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -549,7 +550,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
@@ -558,98 +559,90 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>15</v>
@@ -658,21 +651,18 @@
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -690,139 +680,52 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
